--- a/Entrega_1/4- Modelación/Registro modelos.xlsx
+++ b/Entrega_1/4- Modelación/Registro modelos.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubarcelona-my.sharepoint.com/personal/wyeyexxx22_alumnes_ub_edu/Documents/Escritorio/Mineria/Entrega_1/MODELOS/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_007C4854063A2ADC4A06FD61786488EACF7D523E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A99905F1-C64A-43B7-AED5-8895CE8545ED}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="14400" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Naive_Bayes" sheetId="4" r:id="rId1"/>
     <sheet name="KNN" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
   <si>
     <t>Nombre</t>
   </si>
@@ -248,7 +255,7 @@
     <t>0.4383562</t>
   </si>
   <si>
-    <t>11NN</t>
+    <t>Si: up</t>
   </si>
   <si>
     <t>0.7477551</t>
@@ -266,6 +273,9 @@
     <t>0.4202627</t>
   </si>
   <si>
+    <t>reducido_famd</t>
+  </si>
+  <si>
     <t>0.7595238</t>
   </si>
   <si>
@@ -281,17 +291,20 @@
     <t>0.4456641</t>
   </si>
   <si>
-    <t>reducido_famd</t>
-  </si>
-  <si>
-    <t>Si: up</t>
+    <t>9NN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -304,50 +317,200 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,12 +525,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -384,7 +733,7 @@
         <color theme="4"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </bottom>
       <diagonal/>
     </border>
@@ -395,7 +744,7 @@
         <color theme="4"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </bottom>
       <diagonal/>
     </border>
@@ -408,7 +757,7 @@
         <color theme="4"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </bottom>
       <diagonal/>
     </border>
@@ -418,10 +767,10 @@
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,10 +778,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,10 +791,10 @@
         <color theme="4"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,7 +804,7 @@
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
         <color theme="4"/>
@@ -466,7 +815,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
         <color theme="4"/>
@@ -479,249 +828,422 @@
         <color theme="4"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
       <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="1"/>
-        <name val="Arial"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="1"/>
-        <name val="Arial"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="1"/>
-        <name val="Arial"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -732,7 +1254,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -760,58 +1282,172 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="totalRow" dxfId="17"/>
-      <tableStyleElement type="firstColumn" dxfId="16"/>
-      <tableStyleElement type="lastColumn" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="totalRow" dxfId="7"/>
+      <tableStyleElement type="firstColumn" dxfId="6"/>
+      <tableStyleElement type="lastColumn" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="3"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="8"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="7"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="6"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="5"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="4"/>
-      <tableStyleElement type="pageFieldValues" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="totalRow" dxfId="18"/>
+      <tableStyleElement type="firstRowStripe" dxfId="17"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="16"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="15"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="14"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="13"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="12"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="11"/>
+      <tableStyleElement type="pageFieldValues" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:I15" totalsRowShown="0">
-  <autoFilter ref="A1:I15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:I15" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I15" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nombre" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Balanceado?" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Método" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Accuracy"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Precision"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Recall (Sensitivity)"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Specificity"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="F1-score"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DATA"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="0"/>
+    <tableColumn id="3" name="Balanceado?" dataDxfId="1"/>
+    <tableColumn id="4" name="Método" dataDxfId="2"/>
+    <tableColumn id="6" name="Accuracy"/>
+    <tableColumn id="7" name="Precision"/>
+    <tableColumn id="8" name="Recall (Sensitivity)"/>
+    <tableColumn id="9" name="Specificity"/>
+    <tableColumn id="10" name="F1-score"/>
+    <tableColumn id="2" name="DATA"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1009,414 +1645,415 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="4" max="5" width="12"/>
-    <col min="6" max="6" width="13.33203125"/>
+    <col min="6" max="6" width="13.3333333333333"/>
     <col min="7" max="8" width="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5">
+      <c r="A8" s="17">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5">
+      <c r="A10" s="17">
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5">
+      <c r="A12" s="17">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7">
+      <c r="A14" s="19">
         <v>7</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="18" t="s">
         <v>80</v>
       </c>
       <c r="I14" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="7"/>
+      <c r="A16" s="19"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7"/>
+      <c r="A17" s="19"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="7"/>
+      <c r="A18" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1424,14 +2061,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="9" max="9" width="20.4285714285714" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -1463,348 +2104,349 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0.78857140000000003</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0.44594899999999998</v>
-      </c>
-      <c r="F2" s="13">
-        <v>7.5688069999999996E-2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0.97536060000000002</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0.1249118</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>16</v>
+      <c r="C2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.2109524</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.7890476</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.4597701</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.09174312</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.9717548</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.1529637</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0.6285714</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0.28973110000000002</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.54357798000000002</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0.65084129999999996</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0.3779904</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>16</v>
+      <c r="C4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.3733333</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.6266667</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.2883212</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.5435798</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.6484375</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.3767886</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.60095240000000005</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0.27566960000000001</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.56651735999999997</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.60997599999999996</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0.3708709</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>16</v>
+      <c r="C6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.4099048</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.5900952</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.2801724</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.59633028</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.5985577</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.3812317</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.806508</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0.63302749999999997</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0.29677418999999999</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0.9512195</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0.4040996</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>48</v>
+      <c r="C8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.1957245</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.8042755</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.6147186</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.50373624</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.9475371</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.480064</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0.67743469999999995</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0.36951220000000001</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0.65161290000000005</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.68476510000000002</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0.4715953</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>48</v>
+      <c r="C10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.3268409</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.6731591</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.3671037</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.66236559</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.6762915</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.4723926</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.64750589999999997</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0.3466224</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0.67311827999999996</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0.64042390000000005</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0.45760230000000002</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>48</v>
+      <c r="C12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.3653027</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.6346973</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.3531104</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.6643161</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.6626129</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.445566</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.80095240000000001</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0.21830461000000001</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0.96345919999999996</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0.32362459999999998</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>27</v>
+      <c r="C14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.2042857</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.7957143</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.5810506</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.22076424</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.954324</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.3263506</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="13">
-        <v>0.66571429999999998</v>
-      </c>
-      <c r="E16" s="13">
-        <v>0.3533654</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0.64192139999999998</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0.67235080000000003</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0.455814</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>27</v>
+      <c r="C16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.3452381</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.6547619</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.3392256</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.685036</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.6622606</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.4418784</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0.61238099999999995</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0.30982910000000002</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.63318777000000004</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0.60657729999999999</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0.41606890000000002</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>27</v>
+      <c r="C18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.40404762</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.59595238</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.3015544</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.63537118</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.588525</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.4089951</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="10"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Entrega_1/4- Modelación/Registro modelos.xlsx
+++ b/Entrega_1/4- Modelación/Registro modelos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="17010" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Naive_Bayes" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="98">
   <si>
     <t>Nombre</t>
   </si>
@@ -291,7 +291,37 @@
     <t>0.4456641</t>
   </si>
   <si>
+    <t>Split</t>
+  </si>
+  <si>
     <t>9NN</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Undersampling</t>
+  </si>
+  <si>
+    <t>Oversampling</t>
+  </si>
+  <si>
+    <t>SMOTE</t>
+  </si>
+  <si>
+    <t>ROSE</t>
+  </si>
+  <si>
+    <t>Reducido</t>
+  </si>
+  <si>
+    <t>Reducido_plus</t>
+  </si>
+  <si>
+    <t>Transformada</t>
   </si>
 </sst>
 </file>
@@ -304,7 +334,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -327,6 +357,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -336,27 +379,8 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Lucida Console"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -716,7 +740,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -792,6 +816,74 @@
       </right>
       <top style="thin">
         <color theme="4" tint="0.399945066682943"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399945066682943"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399945066682943"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399945066682943"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.399945066682943"/>
@@ -936,161 +1028,167 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1098,11 +1196,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1110,17 +1208,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1665,391 +1813,391 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="17">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="17">
+      <c r="A4" s="31">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="17">
+      <c r="A6" s="31">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="18"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="17">
+      <c r="A8" s="31">
         <v>4</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="18"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="17">
+      <c r="A10" s="31">
         <v>5</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="18"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="17">
+      <c r="A12" s="31">
         <v>6</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="19">
+      <c r="A14" s="33">
         <v>7</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="32" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="19"/>
+      <c r="A16" s="33"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="19"/>
+      <c r="A17" s="33"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="19"/>
+      <c r="A18" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2063,387 +2211,1229 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="9" max="9" width="20.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1"/>
+    <col min="2" max="2" width="13.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1"/>
+    <col min="4" max="5" width="12.8571428571429" style="1"/>
+    <col min="6" max="6" width="13.2857142857143" style="1"/>
+    <col min="7" max="7" width="12.8571428571429" style="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.4285714285714" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="J1" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>87</v>
+      <c r="C2" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D2" s="6">
-        <v>0.2109524</v>
+        <v>0.815102</v>
       </c>
       <c r="E2" s="6">
+        <v>0.7177419</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.17554241</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.9819866</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.2820919</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10">
         <v>0.7890476</v>
       </c>
-      <c r="F2" s="6">
+      <c r="E3" s="10">
         <v>0.4597701</v>
       </c>
-      <c r="G2" s="6">
+      <c r="F3" s="10">
         <v>0.09174312</v>
       </c>
-      <c r="H2" s="6">
+      <c r="G3" s="10">
         <v>0.9717548</v>
       </c>
-      <c r="I2" s="7">
+      <c r="H3" s="10">
         <v>0.1529637</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>87</v>
+      <c r="I3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D4" s="6">
-        <v>0.3733333</v>
+        <v>0.6702041</v>
       </c>
       <c r="E4" s="6">
-        <v>0.6266667</v>
+        <v>0.3468973</v>
       </c>
       <c r="F4" s="6">
-        <v>0.2883212</v>
+        <v>0.67258383</v>
       </c>
       <c r="G4" s="6">
-        <v>0.5435798</v>
+        <v>0.6695831</v>
       </c>
       <c r="H4" s="6">
-        <v>0.6484375</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.3767886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>87</v>
+        <v>0.4577181</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10">
+        <v>0.6309524</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.2984542</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.57568807</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.6454327</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.3931088</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D6" s="6">
-        <v>0.4099048</v>
+        <v>0.6859184</v>
       </c>
       <c r="E6" s="6">
-        <v>0.5900952</v>
+        <v>0.3808443</v>
       </c>
       <c r="F6" s="6">
-        <v>0.2801724</v>
+        <v>0.82741617</v>
       </c>
       <c r="G6" s="6">
-        <v>0.59633028</v>
+        <v>0.6489964</v>
       </c>
       <c r="H6" s="6">
-        <v>0.5985577</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.3812317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+        <v>0.521604</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
+        <v>0.5895238</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.2729211</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.58715596</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.5901442</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.3726346</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="5"/>
+      <c r="B8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.6904082</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.3941944</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.92406312</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.629439</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.5526393</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="9"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14">
+        <v>0.5680952</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.2670623</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.61926606</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.5546875</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.3731859</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.7655102</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.4544842</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.66469428</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.7918168</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.5398478</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17">
+        <v>0.6852381</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.3134328</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.43348624</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.7512019</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0.3638114</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.1957245</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.8042755</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.6147186</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.50373624</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.9475371</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0.480064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.3268409</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.6731591</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.3671037</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.66236559</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0.6762915</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0.4723926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.3653027</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.6346973</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.3531104</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.6643161</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.6626129</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0.445566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
+      <c r="C12" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.8326531</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.6622074</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0.3905325</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0.9480185</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0.4913151</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10">
+        <v>0.7909524</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.4935065</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.2614679</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.9296875</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.3418291</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.7257143</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.7051282</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.7310859</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.5155011</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10">
+        <v>0.6633333</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.321004</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.5573394</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.6911058</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.4073764</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="5"/>
+      <c r="B16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.7183673</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.4115087</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.8392505</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.6868245</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.5522388</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="9"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14">
+        <v>0.64</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.3139535</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0.6192661</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.6454327</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0.4166667</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.7708163</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.4686241</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.8027613</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.7624807</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.5917848</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="22"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23">
+        <v>0.6790476</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0.3342618</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0.5504587</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0.7127404</v>
+      </c>
+      <c r="H19" s="23">
+        <v>0.4159445</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.7987755</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.5179949</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.3974359</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.9034997</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.4497768</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="25"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="26">
+        <v>0.76</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0.3944099</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0.2912844</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0.8828125</v>
+      </c>
+      <c r="H21" s="26">
+        <v>0.3350923</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.2042857</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.7957143</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.5810506</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.22076424</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.954324</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0.3263506</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.3452381</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0.6547619</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.3392256</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.685036</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.6622606</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0.4418784</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.40404762</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0.59595238</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0.3015544</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0.63537118</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0.588525</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0.4089951</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
+      <c r="C22" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0.8312245</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0.6919918</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0.3323471</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0.9613999</v>
+      </c>
+      <c r="H22" s="20">
+        <v>0.449034</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="22"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="23">
+        <v>0.7947619</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0.5136612</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0.2155963</v>
+      </c>
+      <c r="G23" s="23">
+        <v>0.9465144</v>
+      </c>
+      <c r="H23" s="23">
+        <v>0.3037157</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.7093878</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.3887079</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.7061144</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.7102419</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.5014006</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="22"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="23">
+        <v>0.6566667</v>
+      </c>
+      <c r="E25" s="23">
+        <v>0.3189327</v>
+      </c>
+      <c r="F25" s="23">
+        <v>0.5756881</v>
+      </c>
+      <c r="G25" s="23">
+        <v>0.6778846</v>
+      </c>
+      <c r="H25" s="23">
+        <v>0.4104661</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.7018367</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.3959981</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.8392505</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.6659804</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.5380967</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="22"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="23">
+        <v>0.5961905</v>
+      </c>
+      <c r="E27" s="23">
+        <v>0.2799145</v>
+      </c>
+      <c r="F27" s="23">
+        <v>0.6009174</v>
+      </c>
+      <c r="G27" s="23">
+        <v>0.5949519</v>
+      </c>
+      <c r="H27" s="23">
+        <v>0.3819242</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.7512245</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.4484666</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.8796844</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.7177046</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.5940726</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="22"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="23">
+        <v>0.6404762</v>
+      </c>
+      <c r="E29" s="23">
+        <v>0.3066667</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0.5802752</v>
+      </c>
+      <c r="G29" s="23">
+        <v>0.65625</v>
+      </c>
+      <c r="H29" s="23">
+        <v>0.4012688</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.7944898</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.5033302</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.5216963</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.8656716</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.5123487</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="25"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="26">
+        <v>0.7480952</v>
+      </c>
+      <c r="E31" s="26">
+        <v>0.3926097</v>
+      </c>
+      <c r="F31" s="26">
+        <v>0.3899083</v>
+      </c>
+      <c r="G31" s="26">
+        <v>0.8419471</v>
+      </c>
+      <c r="H31" s="26">
+        <v>0.3912543</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="20">
+        <v>0.8204082</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0.7067901</v>
+      </c>
+      <c r="F32" s="20">
+        <v>0.2258383</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0.9755533</v>
+      </c>
+      <c r="H32" s="20">
+        <v>0.3423019</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="22"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="23">
+        <v>0.7914286</v>
+      </c>
+      <c r="E33" s="23">
+        <v>0.4921875</v>
+      </c>
+      <c r="F33" s="23">
+        <v>0.1444954</v>
+      </c>
+      <c r="G33" s="23">
+        <v>0.9609375</v>
+      </c>
+      <c r="H33" s="23">
+        <v>0.2234043</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.6671429</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.3468983</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.6893491</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.6613484</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0.4615385</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="22"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="23">
+        <v>0.627619</v>
+      </c>
+      <c r="E35" s="23">
+        <v>0.2955083</v>
+      </c>
+      <c r="F35" s="23">
+        <v>0.5733945</v>
+      </c>
+      <c r="G35" s="23">
+        <v>0.6418269</v>
+      </c>
+      <c r="H35" s="23">
+        <v>0.3900156</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.6816327</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.3747706</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.8057199</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.6492537</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0.5115842</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="22"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23">
+        <v>0.5933333</v>
+      </c>
+      <c r="E37" s="23">
+        <v>0.2728261</v>
+      </c>
+      <c r="F37" s="23">
+        <v>0.5756881</v>
+      </c>
+      <c r="G37" s="23">
+        <v>0.5979567</v>
+      </c>
+      <c r="H37" s="23">
+        <v>0.3702065</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="5"/>
+      <c r="B38" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0.6710204</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.3792407</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0.9260355</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0.6044776</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0.5381089</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="22"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="28">
+        <v>0.5557143</v>
+      </c>
+      <c r="E39" s="28">
+        <v>0.2635585</v>
+      </c>
+      <c r="F39" s="28">
+        <v>0.6353211</v>
+      </c>
+      <c r="G39" s="28">
+        <v>0.5348558</v>
+      </c>
+      <c r="H39" s="28">
+        <v>0.3725622</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.7855102</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0.4854445</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.6084813</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.8317036</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0.5400438</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="22"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23">
+        <v>0.707619</v>
+      </c>
+      <c r="E41" s="23">
+        <v>0.3183673</v>
+      </c>
+      <c r="F41" s="23">
+        <v>0.3577982</v>
+      </c>
+      <c r="G41" s="23">
+        <v>0.7992788</v>
+      </c>
+      <c r="H41" s="23">
+        <v>0.336933</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Entrega_1/4- Modelación/Registro modelos.xlsx
+++ b/Entrega_1/4- Modelación/Registro modelos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17010" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="14400" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Naive_Bayes" sheetId="4" r:id="rId1"/>
@@ -1173,7 +1173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1238,6 +1238,27 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1245,21 +1266,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1801,8 +1807,8 @@
   <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -1813,391 +1819,391 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="31">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="31">
+      <c r="A4" s="33">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="31">
+      <c r="A6" s="33">
         <v>3</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="31">
+      <c r="A8" s="33">
         <v>4</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="32"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="31">
+      <c r="A10" s="33">
         <v>5</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="32"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="31">
+      <c r="A12" s="33">
         <v>6</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="32"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="33">
+      <c r="A14" s="35">
         <v>7</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="32" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="34" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="33"/>
+      <c r="A16" s="35"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="33"/>
+      <c r="A17" s="35"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="33"/>
+      <c r="A18" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2214,7 +2220,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2670,116 +2676,116 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="5"/>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="6">
         <v>0.7183673</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="6">
         <v>0.4115087</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="6">
         <v>0.8392505</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="6">
         <v>0.6868245</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="6">
         <v>0.5522388</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="9"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10">
         <v>0.64</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="10">
         <v>0.3139535</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="10">
         <v>0.6192661</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="10">
         <v>0.6454327</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="10">
         <v>0.4166667</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="11" t="s">
         <v>90</v>
       </c>
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="12">
         <v>0.7708163</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="12">
         <v>0.4686241</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="12">
         <v>0.8027613</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="12">
         <v>0.7624807</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="12">
         <v>0.5917848</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="13" t="s">
         <v>89</v>
       </c>
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="22"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23">
+      <c r="A19" s="23"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24">
         <v>0.6790476</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="24">
         <v>0.3342618</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="24">
         <v>0.5504587</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="24">
         <v>0.7127404</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="24">
         <v>0.4159445</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="15" t="s">
         <v>90</v>
       </c>
       <c r="K19" s="8"/>
@@ -2816,25 +2822,25 @@
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="25"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="26">
+      <c r="D21" s="27">
         <v>0.76</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="27">
         <v>0.3944099</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="27">
         <v>0.2912844</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="27">
         <v>0.8828125</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="27">
         <v>0.3350923</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="28" t="s">
         <v>95</v>
       </c>
       <c r="J21" s="11" t="s">
@@ -2874,25 +2880,25 @@
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="22"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="23">
+      <c r="D23" s="30">
         <v>0.7947619</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="30">
         <v>0.5136612</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="30">
         <v>0.2155963</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="30">
         <v>0.9465144</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="30">
         <v>0.3037157</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="31" t="s">
         <v>96</v>
       </c>
       <c r="J23" s="11" t="s">
@@ -2932,25 +2938,25 @@
       <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="22"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="23">
+      <c r="D25" s="30">
         <v>0.6566667</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="30">
         <v>0.3189327</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="30">
         <v>0.5756881</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="30">
         <v>0.6778846</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="30">
         <v>0.4104661</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="31" t="s">
         <v>96</v>
       </c>
       <c r="J25" s="11" t="s">
@@ -2990,25 +2996,25 @@
       <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="22"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="23">
+      <c r="D27" s="30">
         <v>0.5961905</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="30">
         <v>0.2799145</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="30">
         <v>0.6009174</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="30">
         <v>0.5949519</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="30">
         <v>0.3819242</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="31" t="s">
         <v>96</v>
       </c>
       <c r="J27" s="11" t="s">
@@ -3048,25 +3054,25 @@
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="22"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="23">
+      <c r="D29" s="30">
         <v>0.6404762</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="30">
         <v>0.3066667</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="30">
         <v>0.5802752</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="30">
         <v>0.65625</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="30">
         <v>0.4012688</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="31" t="s">
         <v>96</v>
       </c>
       <c r="J29" s="11" t="s">
@@ -3106,25 +3112,25 @@
       <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="25"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="26">
+      <c r="D31" s="27">
         <v>0.7480952</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="27">
         <v>0.3926097</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="27">
         <v>0.3899083</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="27">
         <v>0.8419471</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="27">
         <v>0.3912543</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="I31" s="28" t="s">
         <v>96</v>
       </c>
       <c r="J31" s="11" t="s">
@@ -3164,25 +3170,25 @@
       <c r="K32" s="8"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="22"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="23">
+      <c r="D33" s="30">
         <v>0.7914286</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="30">
         <v>0.4921875</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="30">
         <v>0.1444954</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="30">
         <v>0.9609375</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="30">
         <v>0.2234043</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="31" t="s">
         <v>97</v>
       </c>
       <c r="J33" s="11" t="s">
@@ -3222,25 +3228,25 @@
       <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="22"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="23">
+      <c r="D35" s="30">
         <v>0.627619</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="30">
         <v>0.2955083</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="30">
         <v>0.5733945</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="30">
         <v>0.6418269</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="30">
         <v>0.3900156</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="31" t="s">
         <v>97</v>
       </c>
       <c r="J35" s="11" t="s">
@@ -3280,25 +3286,25 @@
       <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="22"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="10"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30">
         <v>0.5933333</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="30">
         <v>0.2728261</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="30">
         <v>0.5756881</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="30">
         <v>0.5979567</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="30">
         <v>0.3702065</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="31" t="s">
         <v>97</v>
       </c>
       <c r="J37" s="11" t="s">
@@ -3338,25 +3344,25 @@
       <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="22"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="28">
+      <c r="D39" s="24">
         <v>0.5557143</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="24">
         <v>0.2635585</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="24">
         <v>0.6353211</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="24">
         <v>0.5348558</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="24">
         <v>0.3725622</v>
       </c>
-      <c r="I39" s="29" t="s">
+      <c r="I39" s="25" t="s">
         <v>97</v>
       </c>
       <c r="J39" s="15" t="s">
@@ -3365,59 +3371,59 @@
       <c r="K39" s="8"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="22"/>
+      <c r="B40" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="12">
         <v>0.7855102</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="12">
         <v>0.4854445</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="12">
         <v>0.6084813</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="12">
         <v>0.8317036</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="12">
         <v>0.5400438</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="13" t="s">
         <v>89</v>
       </c>
       <c r="K40" s="8"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="22"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23">
+      <c r="A41" s="23"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24">
         <v>0.707619</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="24">
         <v>0.3183673</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="24">
         <v>0.3577982</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="24">
         <v>0.7992788</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="24">
         <v>0.336933</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="15" t="s">
         <v>90</v>
       </c>
       <c r="K41" s="8"/>
